--- a/data/trans_orig/P16A12-Nacimiento-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Nacimiento-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1443,7 +1443,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2332,7 +2332,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3221,7 +3221,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
